--- a/READ/READ_modalities.xlsx
+++ b/READ/READ_modalities.xlsx
@@ -553,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>12.92307692307692</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>

--- a/READ/READ_modalities.xlsx
+++ b/READ/READ_modalities.xlsx
@@ -553,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
-        <v>12.92307692307692</v>
+        <v>12.84615384615385</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>

--- a/READ/READ_modalities.xlsx
+++ b/READ/READ_modalities.xlsx
@@ -514,83 +514,83 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>12.84615384615385</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>383</v>
+        <v>87</v>
       </c>
       <c r="G5" t="n">
-        <v>29.46153846153846</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>7.25</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/READ/READ_modalities.xlsx
+++ b/READ/READ_modalities.xlsx
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -578,10 +578,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
